--- a/Poc Analisis de sentimientos/Cod/filterTwits.xlsx
+++ b/Poc Analisis de sentimientos/Cod/filterTwits.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.schelotto.in\Desktop\Poc Analisis de sentimientos\Cod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362DD5E6-E92A-440D-B0F5-98F578057769}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,19 +25,16 @@
     <t>Emocion</t>
   </si>
   <si>
-    <t>andresbarraud</t>
-  </si>
-  <si>
-    <t>RT: A pesar de su defensa del IOMA, Kicillof y la mayoría de su gabinete optaron por contratar OSDE https://t.co/WrFGstmDVm https://t.co/35dMDEfJy8</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>Ppp25513966</t>
-  </si>
-  <si>
-    <t>Okampus</t>
+    <t>Score Positivo</t>
+  </si>
+  <si>
+    <t>Score Neutral</t>
+  </si>
+  <si>
+    <t>Score Negativo</t>
+  </si>
+  <si>
+    <t>GustavoPecorino</t>
   </si>
   <si>
     <t>RT: En menos de 24 horas: Tras las críticas, Kicillof afilió a toda su familia al IOMA. Pero OSDE lo sigue teniendo  https://t.co/1pN1rJm51k</t>
@@ -52,36 +43,35 @@
     <t>negative</t>
   </si>
   <si>
-    <t>Prounidos1</t>
-  </si>
-  <si>
-    <t>RT: Dice el bonsai marxista Axel Kicillof q los 300 mil jubilados q dejó sin la obra social IOMA tienen un descuento en las funerarias de OSDE donde tiene acciones con Magario</t>
-  </si>
-  <si>
-    <t>MFlecha6</t>
-  </si>
-  <si>
-    <t>RT: No lo van a creer.
-Ante la crisis del IOMA el gobernador decidió que los miembros del gabinete se atiendan con.... OSDE, si señores se institucionalizó el famoso #ZurdoConOsde</t>
-  </si>
-  <si>
-    <t>luisdillon</t>
-  </si>
-  <si>
-    <t>RT: Hippies con OSDE https://t.co/FYnfgfg337</t>
-  </si>
-  <si>
-    <t>maxgiannobi</t>
-  </si>
-  <si>
-    <t>NO RT:@okDiegoRCaceres Y ahora tienen OSDE,</t>
+    <t>pontet9</t>
+  </si>
+  <si>
+    <t>RT: Luis D'Elía está internado en el OTAMENDI, mismo sanatorio de primer nivel donde estuvo internado el Pdte. Alberto Fernández y el Min. Ginés. Mucho "el Estado te cuida" pero no pueden vivir sin los beneficios del sector privado. Son zurdos con OSDE, como Kicillof y su gabinete.</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>Mdelmedio</t>
+  </si>
+  <si>
+    <t>marioeber</t>
+  </si>
+  <si>
+    <t>NO RT: @LANACION Perdón! No era nacional y popular? Por qué no va a un hospital de la matanza? Es otro zurdo con OSDE....</t>
+  </si>
+  <si>
+    <t>monicangas</t>
+  </si>
+  <si>
+    <t>RT: El bonsai marxista peronista kirchnerista come viejas hiedra de zócalos  Axel Kicillof , después de dejar 300 mil jubilados sin IOMA en la pandemia más grande en siglos , él y todo su gabinete de inútiles adquieren OSDE. Este es el socialismo k . Que gobierno de mierda !🤦‍♂️</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,19 +108,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -172,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,27 +186,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,24 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,19 +395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="162.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,82 +412,114 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0.22</v>
+      </c>
+      <c r="E2">
+        <v>0.04</v>
+      </c>
+      <c r="F2">
+        <v>0.74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0.41</v>
+      </c>
+      <c r="E3">
+        <v>0.16</v>
+      </c>
+      <c r="F3">
+        <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0.41</v>
+      </c>
+      <c r="E4">
+        <v>0.16</v>
+      </c>
+      <c r="F4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="D5">
+        <v>0.13</v>
+      </c>
+      <c r="E5">
+        <v>0.23</v>
+      </c>
+      <c r="F5">
+        <v>0.64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+      <c r="E6">
+        <v>0.13</v>
+      </c>
+      <c r="F6">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
